--- a/DVF_Dogrobber/Lite DVF Configuration File_v0.2.xlsx
+++ b/DVF_Dogrobber/Lite DVF Configuration File_v0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -192,19 +192,19 @@
     <t>Wi-Fi Check consists of a number of sub-test suites</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>RGB LED function check</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>RGB LED</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>RGB LED function check</t>
   </si>
   <si>
     <r>
@@ -320,7 +320,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +363,13 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -970,131 +977,131 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1216,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,7 +1741,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1909,8 +1916,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1970,24 +1977,24 @@
         <v>27</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="32" customFormat="1" spans="1:5">
       <c r="A5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2083,8 +2090,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2122,7 +2129,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="10" t="str">
         <f>'Global Configuration'!D4</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'Global Configuration'!E4</f>
@@ -2160,10 +2167,10 @@
         <v>41</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>42</v>
@@ -2245,10 +2252,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
@@ -2262,7 +2269,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="16"/>
@@ -2277,7 +2284,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="16"/>
@@ -2289,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="16"/>
@@ -2307,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="16"/>

--- a/DVF_Dogrobber/Lite DVF Configuration File_v0.2.xlsx
+++ b/DVF_Dogrobber/Lite DVF Configuration File_v0.2.xlsx
@@ -195,6 +195,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>RGB LED</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>RGB LED function check</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <r>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1977,24 +1977,24 @@
         <v>27</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="32" customFormat="1" spans="1:5">
       <c r="A5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2091,7 +2091,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="E8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="G2" s="10" t="str">
         <f>'Global Configuration'!E4</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2252,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>27</v>
@@ -2269,7 +2269,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="16"/>
@@ -2284,7 +2284,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="16"/>
@@ -2296,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="16"/>
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="16"/>

--- a/DVF_Dogrobber/Lite DVF Configuration File_v0.2.xlsx
+++ b/DVF_Dogrobber/Lite DVF Configuration File_v0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -195,16 +195,16 @@
     <t>Y</t>
   </si>
   <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>RGB LED function check</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>RGB LED</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>RGB LED function check</t>
   </si>
   <si>
     <r>
@@ -1916,8 +1916,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1977,24 +1977,24 @@
         <v>27</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="32" customFormat="1" spans="1:5">
       <c r="A5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2090,8 +2090,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="G2" s="10" t="str">
         <f>'Global Configuration'!E4</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2252,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>27</v>
@@ -2269,7 +2269,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="16"/>
@@ -2284,7 +2284,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="16"/>
@@ -2296,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="16"/>
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="16"/>
